--- a/results/Corr_PacketLoss_Int/tree_plot_Corr_PacketLoss_Int_nodeID_2.xlsx
+++ b/results/Corr_PacketLoss_Int/tree_plot_Corr_PacketLoss_Int_nodeID_2.xlsx
@@ -944,7 +944,7 @@
   <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A243" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G264" activeCellId="0" sqref="G264"/>
+      <selection pane="topLeft" activeCell="K263" activeCellId="0" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
